--- a/2. hasil M1 - tanpa random state/hasil tanpa random state.xlsx
+++ b/2. hasil M1 - tanpa random state/hasil tanpa random state.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-hotspot-v2\3. hasil penelitian tanpa random state\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-hotspot-v2\2. hasil M1 - tanpa random state\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EA829B-F575-4390-A4D5-25E1AB615558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6769367-07D1-4C1A-8E78-A9AD591CFE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M1 normalize" sheetId="2" r:id="rId1"/>
@@ -516,7 +516,9 @@
   </sheetPr>
   <dimension ref="A5:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1170,20 +1172,212 @@
       <c r="A17" s="10">
         <v>11</v>
       </c>
+      <c r="B17" s="9">
+        <v>0.64559999999999995</v>
+      </c>
+      <c r="C17" s="9">
+        <v>3.39E-2</v>
+      </c>
+      <c r="D17" s="9">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E17" s="9">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H17" s="9">
+        <v>1.4E-3</v>
+      </c>
+      <c r="I17" s="9">
+        <v>1.9E-3</v>
+      </c>
+      <c r="J17" s="9">
+        <v>1.5E-3</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0.64749999999999996</v>
+      </c>
+      <c r="M17" s="9">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="N17" s="9">
+        <v>9.64E-2</v>
+      </c>
+      <c r="O17" s="9">
+        <v>5.91E-2</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R17" s="9">
+        <v>1.4E-3</v>
+      </c>
+      <c r="S17" s="9">
+        <v>1.9E-3</v>
+      </c>
+      <c r="T17" s="11">
+        <v>1.6000000000000001E-3</v>
+      </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>12</v>
       </c>
+      <c r="B18" s="9">
+        <v>0.64270000000000005</v>
+      </c>
+      <c r="C18" s="9">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="D18" s="9">
+        <v>9.5699999999999993E-2</v>
+      </c>
+      <c r="E18" s="9">
+        <v>5.67E-2</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H18" s="9">
+        <v>1.4E-3</v>
+      </c>
+      <c r="I18" s="9">
+        <v>1.9E-3</v>
+      </c>
+      <c r="J18" s="9">
+        <v>1.5E-3</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0.64390000000000003</v>
+      </c>
+      <c r="M18" s="9">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="N18" s="9">
+        <v>9.74E-2</v>
+      </c>
+      <c r="O18" s="9">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R18" s="9">
+        <v>1.5E-3</v>
+      </c>
+      <c r="S18" s="9">
+        <v>1.9E-3</v>
+      </c>
+      <c r="T18" s="11">
+        <v>1.6000000000000001E-3</v>
+      </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>13</v>
       </c>
+      <c r="B19" s="9">
+        <v>0.64190000000000003</v>
+      </c>
+      <c r="C19" s="9">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="D19" s="9">
+        <v>9.6299999999999997E-2</v>
+      </c>
+      <c r="E19" s="9">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H19" s="9">
+        <v>1.4E-3</v>
+      </c>
+      <c r="I19" s="9">
+        <v>1.8E-3</v>
+      </c>
+      <c r="J19" s="9">
+        <v>1.5E-3</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0.64559999999999995</v>
+      </c>
+      <c r="M19" s="9">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="N19" s="9">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="O19" s="9">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R19" s="9">
+        <v>1.5E-3</v>
+      </c>
+      <c r="S19" s="9">
+        <v>1.9E-3</v>
+      </c>
+      <c r="T19" s="11">
+        <v>1.6000000000000001E-3</v>
+      </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>14</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.64419999999999999</v>
+      </c>
+      <c r="C20" s="9">
+        <v>3.44E-2</v>
+      </c>
+      <c r="D20" s="9">
+        <v>9.5399999999999999E-2</v>
+      </c>
+      <c r="E20" s="9">
+        <v>5.67E-2</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H20" s="9">
+        <v>1.4E-3</v>
+      </c>
+      <c r="I20" s="9">
+        <v>1.9E-3</v>
+      </c>
+      <c r="J20" s="9">
+        <v>1.5E-3</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0.64580000000000004</v>
+      </c>
+      <c r="M20" s="9">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="N20" s="9">
+        <v>9.7299999999999998E-2</v>
+      </c>
+      <c r="O20" s="9">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R20" s="9">
+        <v>1.4E-3</v>
+      </c>
+      <c r="S20" s="9">
+        <v>1.9E-3</v>
+      </c>
+      <c r="T20" s="11">
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
@@ -1229,7 +1423,9 @@
   </sheetPr>
   <dimension ref="A5:T21"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1894,25 +2090,213 @@
       <c r="A17" s="10">
         <v>11</v>
       </c>
-      <c r="T17" s="11"/>
+      <c r="B17" s="9">
+        <v>0.64559999999999995</v>
+      </c>
+      <c r="C17" s="9">
+        <v>244.89240000000001</v>
+      </c>
+      <c r="D17" s="9">
+        <v>693.02940000000001</v>
+      </c>
+      <c r="E17" s="9">
+        <v>136.15</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H17" s="9">
+        <v>10.1777</v>
+      </c>
+      <c r="I17" s="9">
+        <v>13.561299999999999</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0.45469999999999999</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0.64749999999999996</v>
+      </c>
+      <c r="M17" s="9">
+        <v>254.54519999999999</v>
+      </c>
+      <c r="N17" s="9">
+        <v>695.64940000000001</v>
+      </c>
+      <c r="O17" s="9">
+        <v>268.52</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R17" s="9">
+        <v>10.3489</v>
+      </c>
+      <c r="S17" s="9">
+        <v>13.770300000000001</v>
+      </c>
+      <c r="T17" s="11">
+        <v>0.4672</v>
+      </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>12</v>
       </c>
-      <c r="T18" s="11"/>
+      <c r="B18" s="9">
+        <v>0.64270000000000005</v>
+      </c>
+      <c r="C18" s="9">
+        <v>246.63399999999999</v>
+      </c>
+      <c r="D18" s="9">
+        <v>690.60239999999999</v>
+      </c>
+      <c r="E18" s="9">
+        <v>164.1</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H18" s="9">
+        <v>10.083</v>
+      </c>
+      <c r="I18" s="9">
+        <v>13.445399999999999</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0.44690000000000002</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0.64390000000000003</v>
+      </c>
+      <c r="M18" s="9">
+        <v>242.39420000000001</v>
+      </c>
+      <c r="N18" s="9">
+        <v>703.0104</v>
+      </c>
+      <c r="O18" s="9">
+        <v>109.13999999999901</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R18" s="9">
+        <v>10.509499999999999</v>
+      </c>
+      <c r="S18" s="9">
+        <v>13.920500000000001</v>
+      </c>
+      <c r="T18" s="11">
+        <v>0.47220000000000001</v>
+      </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>13</v>
       </c>
-      <c r="T19" s="11"/>
+      <c r="B19" s="9">
+        <v>0.64190000000000003</v>
+      </c>
+      <c r="C19" s="9">
+        <v>246.83840000000001</v>
+      </c>
+      <c r="D19" s="9">
+        <v>694.78129999999999</v>
+      </c>
+      <c r="E19" s="9">
+        <v>117.25</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H19" s="9">
+        <v>10.0017</v>
+      </c>
+      <c r="I19" s="9">
+        <v>13.3201</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0.44369999999999998</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0.64559999999999995</v>
+      </c>
+      <c r="M19" s="9">
+        <v>241.76650000000001</v>
+      </c>
+      <c r="N19" s="9">
+        <v>703.52880000000005</v>
+      </c>
+      <c r="O19" s="9">
+        <v>132.57</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R19" s="9">
+        <v>10.604900000000001</v>
+      </c>
+      <c r="S19" s="9">
+        <v>13.880599999999999</v>
+      </c>
+      <c r="T19" s="11">
+        <v>0.47110000000000002</v>
+      </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>14</v>
       </c>
-      <c r="T20" s="11"/>
+      <c r="B20" s="9">
+        <v>0.64419999999999999</v>
+      </c>
+      <c r="C20" s="9">
+        <v>248.13239999999999</v>
+      </c>
+      <c r="D20" s="9">
+        <v>688.62540000000001</v>
+      </c>
+      <c r="E20" s="9">
+        <v>188.04</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H20" s="9">
+        <v>10.2233</v>
+      </c>
+      <c r="I20" s="9">
+        <v>13.716699999999999</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0.44619999999999999</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0.64580000000000004</v>
+      </c>
+      <c r="M20" s="9">
+        <v>246.22229999999999</v>
+      </c>
+      <c r="N20" s="9">
+        <v>702.01310000000001</v>
+      </c>
+      <c r="O20" s="9">
+        <v>207.06</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R20" s="9">
+        <v>10.4413</v>
+      </c>
+      <c r="S20" s="9">
+        <v>13.867599999999999</v>
+      </c>
+      <c r="T20" s="11">
+        <v>0.45789999999999997</v>
+      </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
